--- a/DZ_9.xlsx
+++ b/DZ_9.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mytraining\Business processes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE62E2-CB4A-4822-B9E1-EF98F551656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
@@ -132,17 +149,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffe699"/>
+        <fgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffd966"/>
+        <fgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,16 +180,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,122 +225,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -334,10 +353,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -375,71 +394,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,7 +486,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -490,11 +509,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -503,13 +522,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -519,7 +538,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -528,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,7 +556,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -545,10 +564,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -613,33 +632,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="33" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="34" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -655,7 +669,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -671,13 +685,13 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -689,7 +703,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -705,24 +719,24 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="5"/>
@@ -733,18 +747,18 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>4570000</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="5"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
@@ -753,23 +767,24 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11">
+      <c r="C7" s="10"/>
+      <c r="D7" s="9">
         <v>600000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>1000000</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>1500000</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f>C6-D7-E7-F7</f>
+        <v>1470000</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
@@ -779,23 +794,27 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9">
         <f>D7*80%</f>
-      </c>
-      <c r="E8" s="11">
+        <v>480000</v>
+      </c>
+      <c r="E8" s="9">
         <f>E7*80%</f>
-      </c>
-      <c r="F8" s="11">
+        <v>800000</v>
+      </c>
+      <c r="F8" s="9">
         <f>F7*80%</f>
-      </c>
-      <c r="G8" s="11">
+        <v>1200000</v>
+      </c>
+      <c r="G8" s="9">
         <f>G7*80%</f>
+        <v>1176000</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="3"/>
@@ -805,25 +824,29 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>-4570000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f>D7-D8</f>
-      </c>
-      <c r="E9" s="11">
+        <v>120000</v>
+      </c>
+      <c r="E9" s="9">
         <f>E7-E8</f>
-      </c>
-      <c r="F9" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="9">
         <f>F7-F8</f>
-      </c>
-      <c r="G9" s="11">
-        <f>H7-H8</f>
+        <v>300000</v>
+      </c>
+      <c r="G9" s="9">
+        <f>G7-G8</f>
+        <v>294000</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
@@ -833,7 +856,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -849,7 +872,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -865,15 +888,15 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
@@ -883,7 +906,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -899,13 +922,14 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4">
         <f>D9/1.1+D9/1.1^2+E9/1.1^3+F9/1.1^4+G9/1.1^5</f>
+        <v>745982.32857914548</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -919,7 +943,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -935,159 +959,166 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="44.25">
+    <row r="16" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="29">
         <v>250</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
         <v>250</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29">
         <v>250</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="22">
+      <c r="H17" s="30"/>
+      <c r="I17" s="29">
         <v>250</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="29">
         <v>1</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
         <v>3</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29">
         <v>2</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="22">
+      <c r="H18" s="30"/>
+      <c r="I18" s="29">
         <v>2</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="31">
         <v>0.5</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23">
+      <c r="D19" s="29"/>
+      <c r="E19" s="31">
         <v>1</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23">
+      <c r="F19" s="29"/>
+      <c r="G19" s="31">
         <v>0.8</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="23">
+      <c r="H19" s="30"/>
+      <c r="I19" s="31">
         <v>0.8</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="32">
         <v>1</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26">
+      <c r="D20" s="32"/>
+      <c r="E20" s="33">
         <f>12/C25</f>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33">
         <f>15/C25</f>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="26">
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33">
         <f>24/C25</f>
-      </c>
-      <c r="J20" s="27"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J20" s="34"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22">
+      <c r="B21" s="17"/>
+      <c r="C21" s="29">
         <f>C17*C18*C19/C20</f>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22">
+        <v>125</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
         <f>E17*E18*E19/E20</f>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22">
+        <v>10500</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29">
         <f>G17*G18*G19/G20</f>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="22">
+        <v>4480</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29">
         <f>I17*I18*I19/I20</f>
-      </c>
-      <c r="J21" s="10"/>
+        <v>2800</v>
+      </c>
+      <c r="J21" s="30"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1103,7 +1134,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1119,7 +1150,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1135,16 +1166,17 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="29">
+      <c r="C25" s="18">
         <f>7*24</f>
-      </c>
-      <c r="D25" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="5"/>
@@ -1155,7 +1187,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1171,38 +1203,38 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -1211,16 +1243,16 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
